--- a/analytics.xlsx
+++ b/analytics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,305 +19,445 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t>sa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「寄生獣(テレビ・アニメ 2014年度)」 広告・宣伝 トヨタ 20140801実施 広告・宣伝 トヨタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.広告・宣伝</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【行け！稲中卓球部】【4.その他】-10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.その他</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2014年度)」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.映像化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2014年度)」 商品化(一般商品) null 20141203申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2014年度)」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.映像化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2015年度)」 商品化(一般商品) 森本産業 株式会社 20141226申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141203申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2014年度)」 商品化(一般商品) タカラトミーアーツ 20141203申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2017年度)」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.映像化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2015年度)」 商品化(一般商品) 森本産業 株式会社 20141213申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>案件名は自動でセットされますので入力する必要はありません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.映像化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>案件名は自動でセットされますので入力する必要はありません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.映像化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>案件名は自動でセットされますので入力する必要はありません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.映像化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2014年度)」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.映像化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2015年度)」 商品化(一般商品) 森本産業 株式会社 20141206申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 広告・宣伝 セブンイレブン 20141218実施</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.広告・宣伝</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141203申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 その他 掲載使用申請書・放送使用申請書 株式会社 電通</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.その他</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141212申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2015年度)」 その他 製作委託 サンプル会社３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.その他</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2015年度)」 商品化(一般商品) 森本産業 株式会社 20141226申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2016年度)」 商品化(一般商品) 森本産業  20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2015年度)」 商品化(一般商品) 森本産業 株式会社 20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪」 商品化(一般商品) 森本産業 株式会社 20141216申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「金田一少年の事件簿」 その他 掲載使用申請・放送使用申請 サンプル放送局</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.その他</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「金田一少年の事件簿」 商品化(一般商品) サンプル会社３ 20141211申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2016年度)」 商品化(一般商品) バンダイ 20141208申請</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.商品化</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「七つの大罪(テレビ・アニメ 2014年度)」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.映像化</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>あいうえお</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんにちは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/11/07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019/12/27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/12/03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/11/07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/11/07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/11/07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/12/15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/11/07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/12/15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/11/07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017/12/15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/07/25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/02/02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/01/26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/02/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/08/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018/12/31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/12/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/12/09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/02/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/08/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -325,7 +465,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,6 +482,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -359,14 +523,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -695,316 +882,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D4"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="A3" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="0" spans="1:5">
       <c r="A0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
